--- a/Lista 1/L1-Q3.xlsx
+++ b/Lista 1/L1-Q3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ilana\Documents\RAPHAEL\FGV\2022\2022.1\Programação Linear e Inteira\Listas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ilana\Documents\RAPHAEL\FGV\2022\2022.1\Programação Linear e Inteira\Listas\Lista 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0971F3C3-19C6-4B1F-975E-0553E8AECC2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4328D45-98EA-46FD-BF3D-7007882636AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D56027CC-C586-46B0-A38C-EEA588805E29}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="17" activeTab="20" xr2:uid="{D56027CC-C586-46B0-A38C-EEA588805E29}"/>
   </bookViews>
   <sheets>
     <sheet name="Relatório de Sensibilidade A" sheetId="16" r:id="rId1"/>
@@ -29,6 +29,11 @@
     <sheet name="C4" sheetId="22" r:id="rId14"/>
     <sheet name="Relatório de Respostas C5" sheetId="25" r:id="rId15"/>
     <sheet name="C5" sheetId="24" r:id="rId16"/>
+    <sheet name="Relatório de Respostas D" sheetId="27" r:id="rId17"/>
+    <sheet name="Relatório de Sensibilidade D" sheetId="28" r:id="rId18"/>
+    <sheet name="Relatório de Sensibilidade D2" sheetId="30" r:id="rId19"/>
+    <sheet name="Relatório de Sensibilidade D3" sheetId="31" r:id="rId20"/>
+    <sheet name="D" sheetId="26" r:id="rId21"/>
   </sheets>
   <definedNames>
     <definedName name="solver_adj" localSheetId="1" hidden="1">A!$J$6:$J$7</definedName>
@@ -39,6 +44,7 @@
     <definedName name="solver_adj" localSheetId="11" hidden="1">'C3'!$J$6:$J$7</definedName>
     <definedName name="solver_adj" localSheetId="13" hidden="1">'C4'!$J$6:$J$7</definedName>
     <definedName name="solver_adj" localSheetId="15" hidden="1">'C5'!$J$6:$J$7</definedName>
+    <definedName name="solver_adj" localSheetId="20" hidden="1">D!$J$6:$J$8</definedName>
     <definedName name="solver_cvg" localSheetId="1" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="3" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="5" hidden="1">0.0001</definedName>
@@ -47,6 +53,7 @@
     <definedName name="solver_cvg" localSheetId="11" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="13" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="15" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="20" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_drv" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_drv" localSheetId="5" hidden="1">1</definedName>
@@ -55,6 +62,7 @@
     <definedName name="solver_drv" localSheetId="11" hidden="1">1</definedName>
     <definedName name="solver_drv" localSheetId="13" hidden="1">1</definedName>
     <definedName name="solver_drv" localSheetId="15" hidden="1">1</definedName>
+    <definedName name="solver_drv" localSheetId="20" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_eng" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_eng" localSheetId="5" hidden="1">2</definedName>
@@ -63,6 +71,7 @@
     <definedName name="solver_eng" localSheetId="11" hidden="1">2</definedName>
     <definedName name="solver_eng" localSheetId="13" hidden="1">2</definedName>
     <definedName name="solver_eng" localSheetId="15" hidden="1">2</definedName>
+    <definedName name="solver_eng" localSheetId="20" hidden="1">2</definedName>
     <definedName name="solver_est" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="5" hidden="1">1</definedName>
@@ -71,6 +80,7 @@
     <definedName name="solver_est" localSheetId="11" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="13" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="15" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="20" hidden="1">1</definedName>
     <definedName name="solver_itr" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="3" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="5" hidden="1">2147483647</definedName>
@@ -79,6 +89,7 @@
     <definedName name="solver_itr" localSheetId="11" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="13" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="15" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="20" hidden="1">2147483647</definedName>
     <definedName name="solver_lhs1" localSheetId="1" hidden="1">A!$A$17</definedName>
     <definedName name="solver_lhs1" localSheetId="3" hidden="1">B!$A$17</definedName>
     <definedName name="solver_lhs1" localSheetId="5" hidden="1">'B2'!$A$17</definedName>
@@ -87,6 +98,7 @@
     <definedName name="solver_lhs1" localSheetId="11" hidden="1">'C3'!$A$17</definedName>
     <definedName name="solver_lhs1" localSheetId="13" hidden="1">'C4'!$A$17</definedName>
     <definedName name="solver_lhs1" localSheetId="15" hidden="1">'C5'!$A$17</definedName>
+    <definedName name="solver_lhs1" localSheetId="20" hidden="1">D!$A$17</definedName>
     <definedName name="solver_lhs2" localSheetId="1" hidden="1">A!$A$18</definedName>
     <definedName name="solver_lhs2" localSheetId="3" hidden="1">B!$A$18</definedName>
     <definedName name="solver_lhs2" localSheetId="5" hidden="1">'B2'!$A$18</definedName>
@@ -95,6 +107,7 @@
     <definedName name="solver_lhs2" localSheetId="11" hidden="1">'C3'!$A$18</definedName>
     <definedName name="solver_lhs2" localSheetId="13" hidden="1">'C4'!$A$18</definedName>
     <definedName name="solver_lhs2" localSheetId="15" hidden="1">'C5'!$A$18</definedName>
+    <definedName name="solver_lhs2" localSheetId="20" hidden="1">D!$A$18</definedName>
     <definedName name="solver_lhs3" localSheetId="1" hidden="1">A!$A$19</definedName>
     <definedName name="solver_lhs3" localSheetId="3" hidden="1">B!$A$19</definedName>
     <definedName name="solver_lhs3" localSheetId="5" hidden="1">'B2'!$A$19:$A$21</definedName>
@@ -103,6 +116,7 @@
     <definedName name="solver_lhs3" localSheetId="11" hidden="1">'C3'!$A$19:$A$21</definedName>
     <definedName name="solver_lhs3" localSheetId="13" hidden="1">'C4'!$A$19:$A$21</definedName>
     <definedName name="solver_lhs3" localSheetId="15" hidden="1">'C5'!$A$19:$A$21</definedName>
+    <definedName name="solver_lhs3" localSheetId="20" hidden="1">D!$A$19:$A$22</definedName>
     <definedName name="solver_lhs4" localSheetId="1" hidden="1">A!$A$20</definedName>
     <definedName name="solver_lhs4" localSheetId="3" hidden="1">B!$A$20</definedName>
     <definedName name="solver_lhs4" localSheetId="7" hidden="1">'C'!$A$20</definedName>
@@ -119,6 +133,7 @@
     <definedName name="solver_mip" localSheetId="11" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="13" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="15" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="20" hidden="1">2147483647</definedName>
     <definedName name="solver_mni" localSheetId="1" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="3" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="5" hidden="1">30</definedName>
@@ -127,6 +142,7 @@
     <definedName name="solver_mni" localSheetId="11" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="13" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="15" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="20" hidden="1">30</definedName>
     <definedName name="solver_mrt" localSheetId="1" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="3" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="5" hidden="1">0.075</definedName>
@@ -135,6 +151,7 @@
     <definedName name="solver_mrt" localSheetId="11" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="13" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="15" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="20" hidden="1">0.075</definedName>
     <definedName name="solver_msl" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="5" hidden="1">2</definedName>
@@ -143,6 +160,7 @@
     <definedName name="solver_msl" localSheetId="11" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="13" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="15" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="20" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="5" hidden="1">1</definedName>
@@ -151,6 +169,7 @@
     <definedName name="solver_neg" localSheetId="11" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="13" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="15" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="20" hidden="1">1</definedName>
     <definedName name="solver_nod" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="3" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="5" hidden="1">2147483647</definedName>
@@ -159,6 +178,7 @@
     <definedName name="solver_nod" localSheetId="11" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="13" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="15" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="20" hidden="1">2147483647</definedName>
     <definedName name="solver_num" localSheetId="1" hidden="1">5</definedName>
     <definedName name="solver_num" localSheetId="3" hidden="1">5</definedName>
     <definedName name="solver_num" localSheetId="5" hidden="1">3</definedName>
@@ -167,6 +187,7 @@
     <definedName name="solver_num" localSheetId="11" hidden="1">3</definedName>
     <definedName name="solver_num" localSheetId="13" hidden="1">3</definedName>
     <definedName name="solver_num" localSheetId="15" hidden="1">3</definedName>
+    <definedName name="solver_num" localSheetId="20" hidden="1">3</definedName>
     <definedName name="solver_nwt" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="5" hidden="1">1</definedName>
@@ -175,6 +196,7 @@
     <definedName name="solver_nwt" localSheetId="11" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="13" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="15" hidden="1">1</definedName>
+    <definedName name="solver_nwt" localSheetId="20" hidden="1">1</definedName>
     <definedName name="solver_opt" localSheetId="1" hidden="1">A!$A$14</definedName>
     <definedName name="solver_opt" localSheetId="3" hidden="1">B!$A$14</definedName>
     <definedName name="solver_opt" localSheetId="5" hidden="1">'B2'!$A$14</definedName>
@@ -183,6 +205,7 @@
     <definedName name="solver_opt" localSheetId="11" hidden="1">'C3'!$A$14</definedName>
     <definedName name="solver_opt" localSheetId="13" hidden="1">'C4'!$A$14</definedName>
     <definedName name="solver_opt" localSheetId="15" hidden="1">'C5'!$A$14</definedName>
+    <definedName name="solver_opt" localSheetId="20" hidden="1">D!$A$14</definedName>
     <definedName name="solver_pre" localSheetId="1" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="3" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="5" hidden="1">0.000001</definedName>
@@ -191,6 +214,7 @@
     <definedName name="solver_pre" localSheetId="11" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="13" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="15" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="20" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_rbv" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_rbv" localSheetId="5" hidden="1">1</definedName>
@@ -199,6 +223,7 @@
     <definedName name="solver_rbv" localSheetId="11" hidden="1">1</definedName>
     <definedName name="solver_rbv" localSheetId="13" hidden="1">1</definedName>
     <definedName name="solver_rbv" localSheetId="15" hidden="1">1</definedName>
+    <definedName name="solver_rbv" localSheetId="20" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="5" hidden="1">1</definedName>
@@ -207,6 +232,7 @@
     <definedName name="solver_rel1" localSheetId="11" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="13" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="15" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="20" hidden="1">1</definedName>
     <definedName name="solver_rel2" localSheetId="1" hidden="1">3</definedName>
     <definedName name="solver_rel2" localSheetId="3" hidden="1">3</definedName>
     <definedName name="solver_rel2" localSheetId="5" hidden="1">3</definedName>
@@ -215,6 +241,7 @@
     <definedName name="solver_rel2" localSheetId="11" hidden="1">3</definedName>
     <definedName name="solver_rel2" localSheetId="13" hidden="1">3</definedName>
     <definedName name="solver_rel2" localSheetId="15" hidden="1">3</definedName>
+    <definedName name="solver_rel2" localSheetId="20" hidden="1">3</definedName>
     <definedName name="solver_rel3" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_rel3" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_rel3" localSheetId="5" hidden="1">1</definedName>
@@ -223,6 +250,7 @@
     <definedName name="solver_rel3" localSheetId="11" hidden="1">1</definedName>
     <definedName name="solver_rel3" localSheetId="13" hidden="1">1</definedName>
     <definedName name="solver_rel3" localSheetId="15" hidden="1">1</definedName>
+    <definedName name="solver_rel3" localSheetId="20" hidden="1">1</definedName>
     <definedName name="solver_rel4" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_rel4" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_rel4" localSheetId="7" hidden="1">1</definedName>
@@ -239,6 +267,7 @@
     <definedName name="solver_rhs1" localSheetId="11" hidden="1">'C3'!$C$17</definedName>
     <definedName name="solver_rhs1" localSheetId="13" hidden="1">'C4'!$C$17</definedName>
     <definedName name="solver_rhs1" localSheetId="15" hidden="1">'C5'!$C$17</definedName>
+    <definedName name="solver_rhs1" localSheetId="20" hidden="1">D!$C$17</definedName>
     <definedName name="solver_rhs2" localSheetId="1" hidden="1">A!$C$18</definedName>
     <definedName name="solver_rhs2" localSheetId="3" hidden="1">B!$C$18</definedName>
     <definedName name="solver_rhs2" localSheetId="5" hidden="1">'B2'!$C$18</definedName>
@@ -247,6 +276,7 @@
     <definedName name="solver_rhs2" localSheetId="11" hidden="1">'C3'!$C$18</definedName>
     <definedName name="solver_rhs2" localSheetId="13" hidden="1">'C4'!$C$18</definedName>
     <definedName name="solver_rhs2" localSheetId="15" hidden="1">'C5'!$C$18</definedName>
+    <definedName name="solver_rhs2" localSheetId="20" hidden="1">D!$C$18</definedName>
     <definedName name="solver_rhs3" localSheetId="1" hidden="1">A!$C$19</definedName>
     <definedName name="solver_rhs3" localSheetId="3" hidden="1">B!$C$19</definedName>
     <definedName name="solver_rhs3" localSheetId="5" hidden="1">'B2'!$C$19:$C$21</definedName>
@@ -255,6 +285,7 @@
     <definedName name="solver_rhs3" localSheetId="11" hidden="1">'C3'!$C$19:$C$21</definedName>
     <definedName name="solver_rhs3" localSheetId="13" hidden="1">'C4'!$C$19:$C$21</definedName>
     <definedName name="solver_rhs3" localSheetId="15" hidden="1">'C5'!$C$19:$C$21</definedName>
+    <definedName name="solver_rhs3" localSheetId="20" hidden="1">D!$C$19:$C$22</definedName>
     <definedName name="solver_rhs4" localSheetId="1" hidden="1">A!$C$20</definedName>
     <definedName name="solver_rhs4" localSheetId="3" hidden="1">B!$C$20</definedName>
     <definedName name="solver_rhs4" localSheetId="7" hidden="1">'C'!$C$20</definedName>
@@ -271,6 +302,7 @@
     <definedName name="solver_rlx" localSheetId="11" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="13" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="15" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="20" hidden="1">2</definedName>
     <definedName name="solver_rsd" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="3" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="5" hidden="1">0</definedName>
@@ -279,6 +311,7 @@
     <definedName name="solver_rsd" localSheetId="11" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="13" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="15" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="20" hidden="1">0</definedName>
     <definedName name="solver_scl" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_scl" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_scl" localSheetId="5" hidden="1">1</definedName>
@@ -287,6 +320,7 @@
     <definedName name="solver_scl" localSheetId="11" hidden="1">1</definedName>
     <definedName name="solver_scl" localSheetId="13" hidden="1">1</definedName>
     <definedName name="solver_scl" localSheetId="15" hidden="1">1</definedName>
+    <definedName name="solver_scl" localSheetId="20" hidden="1">1</definedName>
     <definedName name="solver_sho" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="5" hidden="1">2</definedName>
@@ -295,6 +329,7 @@
     <definedName name="solver_sho" localSheetId="11" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="13" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="15" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="20" hidden="1">2</definedName>
     <definedName name="solver_ssz" localSheetId="1" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="3" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="5" hidden="1">100</definedName>
@@ -303,6 +338,7 @@
     <definedName name="solver_ssz" localSheetId="11" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="13" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="15" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="20" hidden="1">100</definedName>
     <definedName name="solver_tim" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="3" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="5" hidden="1">2147483647</definedName>
@@ -311,6 +347,7 @@
     <definedName name="solver_tim" localSheetId="11" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="13" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="15" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="20" hidden="1">2147483647</definedName>
     <definedName name="solver_tol" localSheetId="1" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="3" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="5" hidden="1">0.01</definedName>
@@ -319,6 +356,7 @@
     <definedName name="solver_tol" localSheetId="11" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="13" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="15" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="20" hidden="1">0.01</definedName>
     <definedName name="solver_typ" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_typ" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_typ" localSheetId="5" hidden="1">1</definedName>
@@ -327,6 +365,7 @@
     <definedName name="solver_typ" localSheetId="11" hidden="1">1</definedName>
     <definedName name="solver_typ" localSheetId="13" hidden="1">1</definedName>
     <definedName name="solver_typ" localSheetId="15" hidden="1">1</definedName>
+    <definedName name="solver_typ" localSheetId="20" hidden="1">1</definedName>
     <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="3" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="5" hidden="1">0</definedName>
@@ -335,6 +374,7 @@
     <definedName name="solver_val" localSheetId="11" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="13" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="15" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="20" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="1" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="3" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="5" hidden="1">3</definedName>
@@ -343,6 +383,7 @@
     <definedName name="solver_ver" localSheetId="11" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="13" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="15" hidden="1">3</definedName>
+    <definedName name="solver_ver" localSheetId="20" hidden="1">3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -362,7 +403,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="912" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1184" uniqueCount="125">
   <si>
     <t>Portfolio Selection Problem  page 11 of BH&amp;M</t>
   </si>
@@ -707,6 +748,36 @@
   </si>
   <si>
     <t>Relatório Criado: 21/02/2022 10:58:46</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Planilha: [L1-Q3.xlsx]D</t>
+  </si>
+  <si>
+    <t>Relatório Criado: 22/02/2022 14:23:56</t>
+  </si>
+  <si>
+    <t>$J$8</t>
+  </si>
+  <si>
+    <t>$A$22</t>
+  </si>
+  <si>
+    <t>$A$22&lt;=$C$22</t>
+  </si>
+  <si>
+    <t>Relatório Criado: 22/02/2022 14:27:04</t>
+  </si>
+  <si>
+    <t>Relatório Criado: 22/02/2022 14:29:17</t>
+  </si>
+  <si>
+    <t>Relatório Criado: 22/02/2022 14:29:44</t>
+  </si>
+  <si>
+    <t>Borrowing</t>
   </si>
 </sst>
 </file>
@@ -774,7 +845,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="42">
+  <borders count="49">
     <border>
       <left/>
       <right/>
@@ -1229,12 +1300,93 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="4" tint="-0.249977111117893"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="4" tint="-0.249977111117893"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color theme="4" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thick">
+        <color theme="4" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color theme="4" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thick">
+        <color theme="4" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="4" tint="-0.249977111117893"/>
+      </right>
+      <top style="thick">
+        <color theme="4" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thick">
+        <color theme="4" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color rgb="FF66FF66"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF66FF66"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -1389,6 +1541,31 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1711,7 +1888,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED2698ED-99FE-4ED2-9254-04C751A0317E}">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5617,12 +5794,1021 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DCEE4CB-F9FC-464C-804A-56662FB3ADD8}">
+  <dimension ref="A1:G33"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.28515625" customWidth="1"/>
+    <col min="2" max="2" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="62" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="62" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="62" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="62" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="62" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="62"/>
+      <c r="B6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="62"/>
+      <c r="B7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="62"/>
+      <c r="B8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="62" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="67" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="67" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="67" t="s">
+        <v>82</v>
+      </c>
+      <c r="E15" s="67" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C16" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="68">
+        <v>0.28300000000000003</v>
+      </c>
+      <c r="E16" s="68">
+        <v>0.28300000000000003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="67" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="67" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" s="67" t="s">
+        <v>82</v>
+      </c>
+      <c r="E20" s="67" t="s">
+        <v>83</v>
+      </c>
+      <c r="F20" s="67" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="63" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" s="63" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="69">
+        <v>3</v>
+      </c>
+      <c r="E21" s="69">
+        <v>3</v>
+      </c>
+      <c r="F21" s="63" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="63" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" s="63" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="69">
+        <v>7</v>
+      </c>
+      <c r="E22" s="69">
+        <v>7</v>
+      </c>
+      <c r="F22" s="63" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="64" t="s">
+        <v>118</v>
+      </c>
+      <c r="C23" s="64" t="s">
+        <v>115</v>
+      </c>
+      <c r="D23" s="68">
+        <v>0</v>
+      </c>
+      <c r="E23" s="68">
+        <v>0</v>
+      </c>
+      <c r="F23" s="64" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="67" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" s="67" t="s">
+        <v>48</v>
+      </c>
+      <c r="D27" s="67" t="s">
+        <v>85</v>
+      </c>
+      <c r="E27" s="67" t="s">
+        <v>86</v>
+      </c>
+      <c r="F27" s="67" t="s">
+        <v>87</v>
+      </c>
+      <c r="G27" s="67" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B28" s="63" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28" s="63" t="s">
+        <v>31</v>
+      </c>
+      <c r="D28" s="69">
+        <v>10</v>
+      </c>
+      <c r="E28" s="63" t="s">
+        <v>91</v>
+      </c>
+      <c r="F28" s="63" t="s">
+        <v>92</v>
+      </c>
+      <c r="G28" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B29" s="63" t="s">
+        <v>66</v>
+      </c>
+      <c r="C29" s="63" t="s">
+        <v>31</v>
+      </c>
+      <c r="D29" s="69">
+        <v>7</v>
+      </c>
+      <c r="E29" s="63" t="s">
+        <v>93</v>
+      </c>
+      <c r="F29" s="63" t="s">
+        <v>94</v>
+      </c>
+      <c r="G29" s="69">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B30" s="63" t="s">
+        <v>67</v>
+      </c>
+      <c r="C30" s="63" t="s">
+        <v>31</v>
+      </c>
+      <c r="D30" s="69">
+        <v>-0.99999999999999911</v>
+      </c>
+      <c r="E30" s="63" t="s">
+        <v>95</v>
+      </c>
+      <c r="F30" s="63" t="s">
+        <v>94</v>
+      </c>
+      <c r="G30" s="63">
+        <v>0.99999999999999911</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B31" s="63" t="s">
+        <v>68</v>
+      </c>
+      <c r="C31" s="63" t="s">
+        <v>31</v>
+      </c>
+      <c r="D31" s="69">
+        <v>-2</v>
+      </c>
+      <c r="E31" s="63" t="s">
+        <v>96</v>
+      </c>
+      <c r="F31" s="63" t="s">
+        <v>94</v>
+      </c>
+      <c r="G31" s="63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B32" s="63" t="s">
+        <v>69</v>
+      </c>
+      <c r="C32" s="63" t="s">
+        <v>31</v>
+      </c>
+      <c r="D32" s="69">
+        <v>3</v>
+      </c>
+      <c r="E32" s="63" t="s">
+        <v>97</v>
+      </c>
+      <c r="F32" s="63" t="s">
+        <v>92</v>
+      </c>
+      <c r="G32" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="64" t="s">
+        <v>119</v>
+      </c>
+      <c r="C33" s="64" t="s">
+        <v>31</v>
+      </c>
+      <c r="D33" s="68">
+        <v>0</v>
+      </c>
+      <c r="E33" s="64" t="s">
+        <v>120</v>
+      </c>
+      <c r="F33" s="64" t="s">
+        <v>94</v>
+      </c>
+      <c r="G33" s="64">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8B4F871-97AD-4CFD-BEED-5C1C4087E167}">
+  <dimension ref="A1:H21"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.28515625" customWidth="1"/>
+    <col min="2" max="2" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="62" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="62" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="62" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="65"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="65" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="65" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" s="65" t="s">
+        <v>53</v>
+      </c>
+      <c r="G7" s="65" t="s">
+        <v>55</v>
+      </c>
+      <c r="H7" s="65" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="66" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="66" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="66" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="66" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" s="66" t="s">
+        <v>54</v>
+      </c>
+      <c r="G8" s="66" t="s">
+        <v>56</v>
+      </c>
+      <c r="H8" s="66" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="63" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="63" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="63">
+        <v>3</v>
+      </c>
+      <c r="E9" s="63">
+        <v>0</v>
+      </c>
+      <c r="F9" s="63">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="G9" s="63">
+        <v>1E+30</v>
+      </c>
+      <c r="H9" s="63">
+        <v>2.0999999999999991E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="63" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" s="63" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="63">
+        <v>7</v>
+      </c>
+      <c r="E10" s="63">
+        <v>0</v>
+      </c>
+      <c r="F10" s="63">
+        <v>2.2000000000000006E-2</v>
+      </c>
+      <c r="G10" s="63">
+        <v>5.4999999999999979E-3</v>
+      </c>
+      <c r="H10" s="63">
+        <v>2.2000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="64" t="s">
+        <v>118</v>
+      </c>
+      <c r="C11" s="64" t="s">
+        <v>115</v>
+      </c>
+      <c r="D11" s="64">
+        <v>0</v>
+      </c>
+      <c r="E11" s="64">
+        <v>-5.4999999999999979E-3</v>
+      </c>
+      <c r="F11" s="64">
+        <v>-2.7500000000000004E-2</v>
+      </c>
+      <c r="G11" s="64">
+        <v>5.4999999999999979E-3</v>
+      </c>
+      <c r="H11" s="64">
+        <v>1E+30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="65"/>
+      <c r="C14" s="65"/>
+      <c r="D14" s="65" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" s="65" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" s="65" t="s">
+        <v>61</v>
+      </c>
+      <c r="G14" s="65" t="s">
+        <v>55</v>
+      </c>
+      <c r="H14" s="65" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="66" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="66" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="66" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" s="66" t="s">
+        <v>60</v>
+      </c>
+      <c r="F15" s="66" t="s">
+        <v>62</v>
+      </c>
+      <c r="G15" s="66" t="s">
+        <v>56</v>
+      </c>
+      <c r="H15" s="66" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="63" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" s="63" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="63">
+        <v>10</v>
+      </c>
+      <c r="E16" s="63">
+        <v>2.2000000000000006E-2</v>
+      </c>
+      <c r="F16" s="63">
+        <v>10</v>
+      </c>
+      <c r="G16" s="63">
+        <v>1E+30</v>
+      </c>
+      <c r="H16" s="63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="63" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" s="63" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="63">
+        <v>7</v>
+      </c>
+      <c r="E17" s="63">
+        <v>0</v>
+      </c>
+      <c r="F17" s="63">
+        <v>4</v>
+      </c>
+      <c r="G17" s="63">
+        <v>3</v>
+      </c>
+      <c r="H17" s="63">
+        <v>1E+30</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="63" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" s="63" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="63">
+        <v>-0.99999999999999911</v>
+      </c>
+      <c r="E18" s="63">
+        <v>0</v>
+      </c>
+      <c r="F18" s="63">
+        <v>0</v>
+      </c>
+      <c r="G18" s="63">
+        <v>1E+30</v>
+      </c>
+      <c r="H18" s="63">
+        <v>0.99999999999999911</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="63" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" s="63" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="63">
+        <v>-2</v>
+      </c>
+      <c r="E19" s="63">
+        <v>0</v>
+      </c>
+      <c r="F19" s="63">
+        <v>0</v>
+      </c>
+      <c r="G19" s="63">
+        <v>1E+30</v>
+      </c>
+      <c r="H19" s="63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20" s="63" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20" s="63" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="63">
+        <v>3</v>
+      </c>
+      <c r="E20" s="63">
+        <v>2.0999999999999991E-2</v>
+      </c>
+      <c r="F20" s="63">
+        <v>3</v>
+      </c>
+      <c r="G20" s="63">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H20" s="63">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="64" t="s">
+        <v>119</v>
+      </c>
+      <c r="C21" s="64" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" s="64">
+        <v>0</v>
+      </c>
+      <c r="E21" s="64">
+        <v>0</v>
+      </c>
+      <c r="F21" s="64">
+        <v>1</v>
+      </c>
+      <c r="G21" s="64">
+        <v>1E+30</v>
+      </c>
+      <c r="H21" s="64">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F6F2D8E-1B3D-4845-8DC3-1E93B651E11C}">
+  <dimension ref="A1:H21"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.28515625" customWidth="1"/>
+    <col min="2" max="2" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="62" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="62" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="62" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="65"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="65" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="65" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" s="65" t="s">
+        <v>53</v>
+      </c>
+      <c r="G7" s="65" t="s">
+        <v>55</v>
+      </c>
+      <c r="H7" s="65" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="66" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="66" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="66" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="66" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" s="66" t="s">
+        <v>54</v>
+      </c>
+      <c r="G8" s="66" t="s">
+        <v>56</v>
+      </c>
+      <c r="H8" s="66" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="63" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="63" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="63">
+        <v>3</v>
+      </c>
+      <c r="E9" s="63">
+        <v>0</v>
+      </c>
+      <c r="F9" s="63">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="G9" s="63">
+        <v>1E+30</v>
+      </c>
+      <c r="H9" s="63">
+        <v>2.0999999999999991E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="63" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" s="63" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="63">
+        <v>7</v>
+      </c>
+      <c r="E10" s="63">
+        <v>0</v>
+      </c>
+      <c r="F10" s="63">
+        <v>2.2000000000000006E-2</v>
+      </c>
+      <c r="G10" s="63">
+        <v>0</v>
+      </c>
+      <c r="H10" s="63">
+        <v>2.2000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="64" t="s">
+        <v>118</v>
+      </c>
+      <c r="C11" s="64" t="s">
+        <v>115</v>
+      </c>
+      <c r="D11" s="64">
+        <v>0</v>
+      </c>
+      <c r="E11" s="64">
+        <v>0</v>
+      </c>
+      <c r="F11" s="64">
+        <v>-2.2000000000000006E-2</v>
+      </c>
+      <c r="G11" s="64">
+        <v>0</v>
+      </c>
+      <c r="H11" s="64">
+        <v>1E+30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="65"/>
+      <c r="C14" s="65"/>
+      <c r="D14" s="65" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" s="65" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" s="65" t="s">
+        <v>61</v>
+      </c>
+      <c r="G14" s="65" t="s">
+        <v>55</v>
+      </c>
+      <c r="H14" s="65" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="66" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="66" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="66" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" s="66" t="s">
+        <v>60</v>
+      </c>
+      <c r="F15" s="66" t="s">
+        <v>62</v>
+      </c>
+      <c r="G15" s="66" t="s">
+        <v>56</v>
+      </c>
+      <c r="H15" s="66" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="63" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" s="63" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="63">
+        <v>10</v>
+      </c>
+      <c r="E16" s="63">
+        <v>2.2000000000000006E-2</v>
+      </c>
+      <c r="F16" s="63">
+        <v>10</v>
+      </c>
+      <c r="G16" s="63">
+        <v>1E+30</v>
+      </c>
+      <c r="H16" s="63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="63" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" s="63" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="63">
+        <v>7</v>
+      </c>
+      <c r="E17" s="63">
+        <v>0</v>
+      </c>
+      <c r="F17" s="63">
+        <v>4</v>
+      </c>
+      <c r="G17" s="63">
+        <v>3</v>
+      </c>
+      <c r="H17" s="63">
+        <v>1E+30</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="63" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" s="63" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="63">
+        <v>-0.99999999999999911</v>
+      </c>
+      <c r="E18" s="63">
+        <v>0</v>
+      </c>
+      <c r="F18" s="63">
+        <v>0</v>
+      </c>
+      <c r="G18" s="63">
+        <v>1E+30</v>
+      </c>
+      <c r="H18" s="63">
+        <v>0.99999999999999911</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="63" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" s="63" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="63">
+        <v>-2</v>
+      </c>
+      <c r="E19" s="63">
+        <v>0</v>
+      </c>
+      <c r="F19" s="63">
+        <v>0</v>
+      </c>
+      <c r="G19" s="63">
+        <v>1E+30</v>
+      </c>
+      <c r="H19" s="63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20" s="63" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20" s="63" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="63">
+        <v>3</v>
+      </c>
+      <c r="E20" s="63">
+        <v>2.0999999999999991E-2</v>
+      </c>
+      <c r="F20" s="63">
+        <v>3</v>
+      </c>
+      <c r="G20" s="63">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H20" s="63">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="64" t="s">
+        <v>119</v>
+      </c>
+      <c r="C21" s="64" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" s="64">
+        <v>0</v>
+      </c>
+      <c r="E21" s="64">
+        <v>0</v>
+      </c>
+      <c r="F21" s="64">
+        <v>1</v>
+      </c>
+      <c r="G21" s="64">
+        <v>1E+30</v>
+      </c>
+      <c r="H21" s="64">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EB030FA-FE42-418E-83EA-3B4C726E9EB7}">
   <dimension ref="A1:Y31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:V30"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6205,6 +7391,1055 @@
       <c r="L22" s="2"/>
     </row>
     <row r="23" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+    </row>
+    <row r="24" spans="1:12" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="31"/>
+      <c r="B24" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="5"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+    </row>
+    <row r="25" spans="1:12" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="1"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+    </row>
+    <row r="26" spans="1:12" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="32"/>
+      <c r="B26" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+    </row>
+    <row r="27" spans="1:12" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+    </row>
+    <row r="28" spans="1:12" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="33"/>
+      <c r="B28" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+    </row>
+    <row r="29" spans="1:12" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+    </row>
+    <row r="30" spans="1:12" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="8"/>
+      <c r="B30" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" s="2"/>
+    </row>
+    <row r="31" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1586F5A6-574A-4CC7-8673-FDBF8C38A7A8}">
+  <dimension ref="A1:H21"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.28515625" customWidth="1"/>
+    <col min="2" max="2" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="62" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="62" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="62" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="65"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="65" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="65" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" s="65" t="s">
+        <v>53</v>
+      </c>
+      <c r="G7" s="65" t="s">
+        <v>55</v>
+      </c>
+      <c r="H7" s="65" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="66" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="66" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="66" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="66" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" s="66" t="s">
+        <v>54</v>
+      </c>
+      <c r="G8" s="66" t="s">
+        <v>56</v>
+      </c>
+      <c r="H8" s="66" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="63" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="63" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="63">
+        <v>3</v>
+      </c>
+      <c r="E9" s="63">
+        <v>0</v>
+      </c>
+      <c r="F9" s="63">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="G9" s="63">
+        <v>1E+30</v>
+      </c>
+      <c r="H9" s="63">
+        <v>2.0999999999999991E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="63" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" s="63" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="63">
+        <v>8</v>
+      </c>
+      <c r="E10" s="63">
+        <v>0</v>
+      </c>
+      <c r="F10" s="63">
+        <v>2.2000000000000006E-2</v>
+      </c>
+      <c r="G10" s="63">
+        <v>2.0999999999999991E-2</v>
+      </c>
+      <c r="H10" s="63">
+        <v>1.000000000000098E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="64" t="s">
+        <v>118</v>
+      </c>
+      <c r="C11" s="64" t="s">
+        <v>115</v>
+      </c>
+      <c r="D11" s="64">
+        <v>1</v>
+      </c>
+      <c r="E11" s="64">
+        <v>0</v>
+      </c>
+      <c r="F11" s="64">
+        <v>-2.1899999999999996E-2</v>
+      </c>
+      <c r="G11" s="64">
+        <v>1E+30</v>
+      </c>
+      <c r="H11" s="64">
+        <v>1.000000000000098E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="65"/>
+      <c r="C14" s="65"/>
+      <c r="D14" s="65" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" s="65" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" s="65" t="s">
+        <v>61</v>
+      </c>
+      <c r="G14" s="65" t="s">
+        <v>55</v>
+      </c>
+      <c r="H14" s="65" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="66" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="66" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="66" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" s="66" t="s">
+        <v>60</v>
+      </c>
+      <c r="F15" s="66" t="s">
+        <v>62</v>
+      </c>
+      <c r="G15" s="66" t="s">
+        <v>56</v>
+      </c>
+      <c r="H15" s="66" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="63" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" s="63" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="63">
+        <v>10</v>
+      </c>
+      <c r="E16" s="63">
+        <v>2.2000000000000006E-2</v>
+      </c>
+      <c r="F16" s="63">
+        <v>10</v>
+      </c>
+      <c r="G16" s="63">
+        <v>1E+30</v>
+      </c>
+      <c r="H16" s="63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="63" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" s="63" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="63">
+        <v>8</v>
+      </c>
+      <c r="E17" s="63">
+        <v>0</v>
+      </c>
+      <c r="F17" s="63">
+        <v>4</v>
+      </c>
+      <c r="G17" s="63">
+        <v>4</v>
+      </c>
+      <c r="H17" s="63">
+        <v>1E+30</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="63" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" s="63" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="63">
+        <v>-1.399999999999999</v>
+      </c>
+      <c r="E18" s="63">
+        <v>0</v>
+      </c>
+      <c r="F18" s="63">
+        <v>0</v>
+      </c>
+      <c r="G18" s="63">
+        <v>1E+30</v>
+      </c>
+      <c r="H18" s="63">
+        <v>1.399999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="63" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" s="63" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="63">
+        <v>-4</v>
+      </c>
+      <c r="E19" s="63">
+        <v>0</v>
+      </c>
+      <c r="F19" s="63">
+        <v>0</v>
+      </c>
+      <c r="G19" s="63">
+        <v>1E+30</v>
+      </c>
+      <c r="H19" s="63">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20" s="63" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20" s="63" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="63">
+        <v>3</v>
+      </c>
+      <c r="E20" s="63">
+        <v>2.0999999999999991E-2</v>
+      </c>
+      <c r="F20" s="63">
+        <v>3</v>
+      </c>
+      <c r="G20" s="63">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H20" s="63">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="64" t="s">
+        <v>119</v>
+      </c>
+      <c r="C21" s="64" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" s="64">
+        <v>1</v>
+      </c>
+      <c r="E21" s="64">
+        <v>1.000000000000098E-4</v>
+      </c>
+      <c r="F21" s="64">
+        <v>1</v>
+      </c>
+      <c r="G21" s="64">
+        <v>1E+30</v>
+      </c>
+      <c r="H21" s="64">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{734B7A84-50D8-46F7-8A4F-84A56C2E9B75}">
+  <dimension ref="A1:V31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="W17" sqref="W17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:22" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="1"/>
+    </row>
+    <row r="2" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="1"/>
+    </row>
+    <row r="3" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="1"/>
+    </row>
+    <row r="4" spans="1:22" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="P5" s="54"/>
+      <c r="Q5" s="54"/>
+      <c r="R5" s="54"/>
+      <c r="S5" s="54"/>
+      <c r="T5" s="54"/>
+      <c r="U5" s="54"/>
+      <c r="V5" s="54"/>
+    </row>
+    <row r="6" spans="1:22" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="9">
+        <v>2</v>
+      </c>
+      <c r="E6" s="9">
+        <v>9</v>
+      </c>
+      <c r="F6" s="9">
+        <v>4.3</v>
+      </c>
+      <c r="G6" s="16">
+        <v>4.3</v>
+      </c>
+      <c r="H6" s="2"/>
+      <c r="I6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" s="18">
+        <v>3</v>
+      </c>
+      <c r="K6" s="2"/>
+      <c r="L6" s="5">
+        <v>4</v>
+      </c>
+      <c r="M6" s="5">
+        <f>D6-M$12</f>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="P6" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q6" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="R6" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="S6" s="9">
+        <v>2</v>
+      </c>
+      <c r="T6" s="9">
+        <v>9</v>
+      </c>
+      <c r="U6" s="9">
+        <v>4.3</v>
+      </c>
+      <c r="V6" s="16">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="9">
+        <v>2</v>
+      </c>
+      <c r="E7" s="9">
+        <v>9</v>
+      </c>
+      <c r="F7" s="9">
+        <v>5.4</v>
+      </c>
+      <c r="G7" s="16">
+        <v>2.7</v>
+      </c>
+      <c r="H7" s="2"/>
+      <c r="I7" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="J7" s="51">
+        <v>7</v>
+      </c>
+      <c r="K7" s="2"/>
+      <c r="L7" s="5">
+        <v>-2</v>
+      </c>
+      <c r="M7" s="5">
+        <f>D9-M$12</f>
+        <v>-0.39999999999999991</v>
+      </c>
+      <c r="P7" s="55" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q7" s="52" t="s">
+        <v>24</v>
+      </c>
+      <c r="R7" s="52" t="s">
+        <v>25</v>
+      </c>
+      <c r="S7" s="52">
+        <v>1</v>
+      </c>
+      <c r="T7" s="52">
+        <v>9</v>
+      </c>
+      <c r="U7" s="52">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="V7" s="56">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="9">
+        <v>1</v>
+      </c>
+      <c r="E8" s="9">
+        <v>9</v>
+      </c>
+      <c r="F8" s="9">
+        <v>5</v>
+      </c>
+      <c r="G8" s="16">
+        <v>2.5</v>
+      </c>
+      <c r="H8" s="2"/>
+      <c r="I8" s="73" t="s">
+        <v>115</v>
+      </c>
+      <c r="J8" s="74">
+        <v>0</v>
+      </c>
+      <c r="K8" s="2"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="O8" s="70"/>
+      <c r="P8" s="79" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q8" s="71" t="s">
+        <v>6</v>
+      </c>
+      <c r="R8" s="72"/>
+      <c r="S8" s="72"/>
+      <c r="T8" s="72"/>
+      <c r="U8" s="72"/>
+      <c r="V8" s="80">
+        <v>-2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="9">
+        <v>1</v>
+      </c>
+      <c r="E9" s="9">
+        <v>9</v>
+      </c>
+      <c r="F9" s="9">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="G9" s="16">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="H9" s="2"/>
+      <c r="K9" s="2"/>
+    </row>
+    <row r="10" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="14">
+        <v>5</v>
+      </c>
+      <c r="E10" s="52">
+        <v>9</v>
+      </c>
+      <c r="F10" s="14">
+        <v>4.5</v>
+      </c>
+      <c r="G10" s="17">
+        <v>4.5</v>
+      </c>
+      <c r="H10" s="2"/>
+      <c r="I10" s="48"/>
+      <c r="J10" s="49"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+    </row>
+    <row r="11" spans="1:22" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="M11" s="15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="13">
+        <v>5</v>
+      </c>
+      <c r="M12" s="17">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="1"/>
+    </row>
+    <row r="14" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="8">
+        <f>SUMPRODUCT(J6:J8,V6:V8)/100</f>
+        <v>0.28300000000000003</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="1"/>
+    </row>
+    <row r="15" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="1"/>
+    </row>
+    <row r="16" spans="1:22" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="1"/>
+    </row>
+    <row r="17" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="29">
+        <f>J6+J7-J8</f>
+        <v>10</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="9">
+        <v>10</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+    </row>
+    <row r="18" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="29">
+        <f>J7</f>
+        <v>7</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="9">
+        <v>4</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+    </row>
+    <row r="19" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="29">
+        <f>SUMPRODUCT(M6:M7,J6:J7)</f>
+        <v>-0.99999999999999911</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="9">
+        <v>0</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+    </row>
+    <row r="20" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="30">
+        <f>SUMPRODUCT(L6:L7,J6:J7)</f>
+        <v>-2</v>
+      </c>
+      <c r="B20" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="25">
+        <v>0</v>
+      </c>
+      <c r="D20" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="41"/>
+      <c r="L20" s="2"/>
+    </row>
+    <row r="21" spans="1:12" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="47">
+        <f>J6</f>
+        <v>3</v>
+      </c>
+      <c r="B21" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="46">
+        <v>3</v>
+      </c>
+      <c r="D21" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="E21" s="44"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="44"/>
+      <c r="H21" s="43"/>
+      <c r="I21" s="43"/>
+      <c r="J21" s="43"/>
+      <c r="K21" s="42"/>
+      <c r="L21" s="2"/>
+    </row>
+    <row r="22" spans="1:12" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="75">
+        <f>J8</f>
+        <v>0</v>
+      </c>
+      <c r="B22" s="76" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="76">
+        <v>1</v>
+      </c>
+      <c r="D22" s="77" t="s">
+        <v>124</v>
+      </c>
+      <c r="E22" s="78"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+    </row>
+    <row r="23" spans="1:12" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
